--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Python-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D3C57-349F-4DCC-87AD-B676A0121886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4E11B-6D23-4906-8A01-400703A66A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11040" yWindow="2745" windowWidth="17970" windowHeight="9090" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="1500" yWindow="3495" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="158">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -3937,6 +3937,15 @@
     </r>
   </si>
   <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>PROPIEDAD</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">&lt;h1 </t>
     </r>
@@ -3949,7 +3958,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>style="color:#148F77;background-color:#ffffdd"</t>
+      <t>style="background-color:#ffffdd"</t>
     </r>
     <r>
       <rPr>
@@ -3964,6 +3973,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: cambia de color el fondo del texto y deben ir separado de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>por propiedad y si son sensible que este con minuscula que con mayuscula</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">La propiedas </t>
     </r>
     <r>
@@ -3985,26 +4041,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> se puede aplicar a todos los elementos
-de html para aplicar color a la letras (14) primero es color
-rojo - (8F) es verde y (77) es azul</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aplica lo mismo que estilo pero en este caso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">  cambiar el color del texto 
+Se puede aplicar a todos los elementos de html (14) primero 
+es color rojo - (8F) es verde y (77) es azul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">text-align: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>background-
-color</t>
+      <t>left - right - center - justify</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">text-decoration: </t>
     </r>
     <r>
       <rPr>
@@ -4014,29 +4073,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: cambia de color el fondo del texto y deben ir separado de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>none - underline - overline - linethrough</t>
+    </r>
+  </si>
+  <si>
+    <t>alinea el texto: derecha - izquierda - centrado  - justificado</t>
+  </si>
+  <si>
+    <t>no coloca linea - color linea abajo - coloca linea arriba - raya en medio</t>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+  </si>
+  <si>
+    <t>indica cantidad de espacio entre cada carácter</t>
+  </si>
+  <si>
+    <t>word-spacing</t>
+  </si>
+  <si>
+    <t>indica el espacio entre cada palabra</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">text-transform: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>por propiedad y si son sensible que este con minuscula que con mayuscula</t>
-    </r>
+      <t>none - capitalize - lowercase - uppercase</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No provoca cambio - mayuscula el primer carácter de cada palabra - minuscula todo el texto - mayuscula todo el texto  </t>
+  </si>
+  <si>
+    <t>primera linea del texto indentada (espacio al comienzo) la segunda no - con valor negativo la indentacion aplica hacia la izquierda</t>
   </si>
 </sst>
 </file>
@@ -4160,7 +4240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4210,15 +4290,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4404,7 +4497,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4453,7 +4546,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4502,7 +4595,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4929,7 +5022,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4937,31 +5030,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -5444,17 +5537,20 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5462,199 +5558,274 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="1"/>
       <c r="C10" s="18"/>
     </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="1"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="2:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
       <c r="B48" s="12"/>
       <c r="C48" s="8"/>
     </row>
@@ -5763,7 +5934,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Python-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4E11B-6D23-4906-8A01-400703A66A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E180030-575D-4CA7-B614-44EF92A0EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3495" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-9375" yWindow="3630" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4117,6 +4117,227 @@
   </si>
   <si>
     <t>primera linea del texto indentada (espacio al comienzo) la segunda no - con valor negativo la indentacion aplica hacia la izquierda</t>
+  </si>
+  <si>
+    <t>&lt;div style="background-color:#ffffdd"&gt; 
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El elementos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> permite agrupar un conjunto de elementos y aplicar reglas de estilo (a,em,strong,innput,ect - bloques)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;span style="color:#148F77"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comentario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cambia de color solo el texto ingresado entre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">span </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sin cambiar el 
+resto o hacer salto de linea (texto personalizado)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;pre&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">las cosas deben ir como se indica 
+   sin problemas de order 452610 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/pre&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con la etiquetad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la informacion se mostrara tal y cual como se 
+ingreso y si se aplica CSS aparece tipo monoespaciado </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-famili: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">arial - arial black - courier new - georgia </t>
+    </r>
+  </si>
+  <si>
+    <t>aplica tipo de fuentes presente en el navegador</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-size: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5px</t>
+    </r>
+  </si>
+  <si>
+    <t>define el tamaño de la fuente en pixeles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-style: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal - italic - oblique</t>
+    </r>
+  </si>
+  <si>
+    <t>aplica estilo como normal - italic- oblique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-weight: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal - bold- bolder - lighter</t>
+    </r>
+  </si>
+  <si>
+    <t>aplicar valores como normal - bold - bolder - lighter</t>
+  </si>
+  <si>
+    <t>TEXTO
+FUENTES</t>
   </si>
 </sst>
 </file>
@@ -4240,7 +4461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4295,6 +4516,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4304,15 +4535,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5022,7 +5249,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5030,31 +5257,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -5536,8 +5763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5559,7 +5786,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -5570,7 +5797,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="19" t="s">
         <v>143</v>
       </c>
@@ -5579,10 +5806,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5590,8 +5817,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5599,8 +5826,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5608,8 +5835,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5617,8 +5844,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -5626,206 +5853,238 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="19"/>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="12"/>
       <c r="C48" s="8"/>
     </row>
@@ -5933,8 +6192,11 @@
       <c r="B85" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Clase pagina web.xlsx
+++ b/Clase pagina web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Python-para-principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E180030-575D-4CA7-B614-44EF92A0EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE2253-19D9-4DD9-BF4D-B1B53A57B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9375" yWindow="3630" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
+    <workbookView xWindow="-11625" yWindow="2595" windowWidth="16200" windowHeight="9105" activeTab="1" xr2:uid="{5C423194-FF81-4910-B15F-D450FD706367}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
   <si>
     <t>Contexto de la pagina</t>
   </si>
@@ -4338,6 +4338,66 @@
   <si>
     <t>TEXTO
 FUENTES</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+   h1 {color:#ff0000}
+   h2 {color:#00ff00} 
+   h3 {color:#0000ff}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se usa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dentro del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;head&gt; &lt;/head&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con eso indicamos que todos 
+los elemento que lleven de titulo h1,h2 y h3 se resaltara con el color 
+que esta indicado en cada uno</t>
+    </r>
+  </si>
+  <si>
+    <t>TEXTO 
+EN HEAD</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4526,6 +4586,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4534,9 +4600,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5249,7 +5312,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5257,31 +5320,31 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -5763,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4529-E492-4B70-80CA-161E63EEB01F}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,7 +5849,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -5797,7 +5860,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="19" t="s">
         <v>143</v>
       </c>
@@ -5806,7 +5869,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -5817,7 +5880,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
@@ -5826,7 +5889,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="22" t="s">
         <v>150</v>
       </c>
@@ -5835,7 +5898,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
@@ -5844,7 +5907,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="23" t="s">
         <v>154</v>
       </c>
@@ -5853,7 +5916,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="22" t="s">
         <v>155</v>
       </c>
@@ -5862,10 +5925,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -5873,7 +5936,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>160</v>
       </c>
@@ -5882,8 +5945,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="24" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -5891,7 +5954,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -5902,7 +5965,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="22" t="s">
         <v>166</v>
       </c>
@@ -5911,7 +5974,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="22" t="s">
         <v>168</v>
       </c>
@@ -5920,7 +5983,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="22" t="s">
         <v>170</v>
       </c>
@@ -5928,10 +5991,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
